--- a/excel/daftar_hadir.xlsx
+++ b/excel/daftar_hadir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ICT\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BACC45A6-C3EA-4DE9-B707-F9294E4B7921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4DAD993A-B683-43EF-9444-B95904AC98BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="855" windowWidth="13740" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="daftar_hadir" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6" uniqueCount="5">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5" uniqueCount="5">
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Nama Pembimbing</t>
   </si>
   <si>
     <t>Nama Siswa</t>
@@ -39,14 +36,17 @@
     <t>Tanggal Pelaksanaan</t>
   </si>
   <si>
-    <t>Pejabat</t>
+    <t>Lokasi Tour</t>
+  </si>
+  <si>
+    <t>Nama Sekolah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +177,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -880,16 +886,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
@@ -898,7 +904,7 @@
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,175 +912,167 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>